--- a/RPS Course - Microservices 1 (1).xlsx
+++ b/RPS Course - Microservices 1 (1).xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sandeep\Ericsson Microservices Python\Spring Boot Microservices 8th OCT 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87197BCD-203F-4F09-B01F-4450CCF3FACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206EFBB6-C607-421D-AB93-DFD652B7D869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C773A19F-2F35-4D90-90CD-A833D4B38AD3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{C773A19F-2F35-4D90-90CD-A833D4B38AD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="labs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Course name</t>
   </si>
@@ -102,13 +103,55 @@
   </si>
   <si>
     <t>Need for Microservices, Introduction to Microservices, Developing Microservices using Spring,configserver,api gateway,eurekaserver, circuit pattern,JWT</t>
+  </si>
+  <si>
+    <t>Partipant Name</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Jitendra Sharma B</t>
+  </si>
+  <si>
+    <t>25SHA2756_U01</t>
+  </si>
+  <si>
+    <t>Shalini Agarwal</t>
+  </si>
+  <si>
+    <t>25SHA2756_U02</t>
+  </si>
+  <si>
+    <t>25SHA2756_U03</t>
+  </si>
+  <si>
+    <t>25SHA2756_U04</t>
+  </si>
+  <si>
+    <t>25SHA2756_U05</t>
+  </si>
+  <si>
+    <t>Rps@123</t>
+  </si>
+  <si>
+    <t>Ankit Singh</t>
+  </si>
+  <si>
+    <t>Rashi Chaudhary</t>
+  </si>
+  <si>
+    <t>Sudhanshu A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,14 +167,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -355,10 +424,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -405,8 +475,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -721,7 +795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAD3FDC2-302C-45F3-81ED-A00CEC83C9C4}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -880,4 +954,134 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{156E4590-58A4-4CD1-86AE-993FEB052D1C}">
+  <dimension ref="C3:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="19.90625" customWidth="1"/>
+    <col min="4" max="4" width="16.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C3" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C5" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C6" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C7" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C8" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{F6C1E53A-AA77-4883-96E6-BED391CE0AB7}"/>
+    <hyperlink ref="E5:E8" r:id="rId2" display="Rps@123" xr:uid="{DB7CBB06-EC27-4EF7-B8E6-DA0377430805}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>